--- a/Hackathon.xlsx
+++ b/Hackathon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Desktop\Hackation 2018\Hackathon2018-Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFD9A4C-36C0-4467-8693-6A9239449815}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95404931-F168-4624-AFB3-843F8ED84F46}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22560" windowHeight="11200" activeTab="2" xr2:uid="{10484A4B-3298-420E-A030-88B7D228880B}"/>
   </bookViews>
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +351,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -741,7 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,6 +767,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nearest Objects in CM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -787,10 +805,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -812,39 +831,23 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="25400">
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="4"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:noFill/>
+              <a:ln w="50800" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -854,7 +857,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-80</c:v>
+                  <c:v>-338</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-50</c:v>
@@ -866,7 +869,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -881,7 +884,7 @@
                   <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,13 +899,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>261.25849268492692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>262.27657158045969</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -911,10 +914,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-10.04987562112089</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -947,8 +950,8 @@
         <c:axId val="404061232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -957,9 +960,72 @@
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404061560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404061560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="-100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -985,71 +1051,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="404061560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="404061560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="50"/>
-          <c:min val="-50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1066,7 +1070,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1084,12 +1088,22 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -1160,14 +1174,15 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -1177,10 +1192,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -1191,12 +1218,22 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
@@ -1214,8 +1251,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1225,16 +1263,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
@@ -1244,90 +1282,52 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
         </a:solidFill>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
@@ -1337,30 +1337,23 @@
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1368,7 +1361,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1384,9 +1377,72 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -1398,74 +1454,13 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:errorBar>
   <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1479,9 +1474,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1499,9 +1493,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1513,16 +1506,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1531,16 +1524,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1549,8 +1542,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1560,7 +1554,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1568,7 +1562,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1576,10 +1570,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1587,16 +1592,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1605,28 +1610,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
+      <cs:styleClr val="0"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1635,8 +1642,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1646,21 +1654,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1669,29 +1675,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -2151,37 +2147,37 @@
     </row>
     <row r="5" spans="1:13" s="14" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45">
-        <v>0.21429211805555556</v>
+        <v>0.29533782407407411</v>
       </c>
       <c r="B5" s="15">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="C5" s="15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D5" s="15">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E5" s="15">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F5" s="15">
-        <v>8</v>
+        <v>676</v>
       </c>
       <c r="G5" s="15">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H5" s="15">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="I5" s="15">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J5" s="15">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="L5" s="15">
         <v>219</v>
@@ -2262,62 +2258,150 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="A8" s="48">
+        <v>0.29513281250000001</v>
+      </c>
+      <c r="B8" s="42">
+        <v>274</v>
+      </c>
+      <c r="C8" s="42">
+        <v>51</v>
+      </c>
+      <c r="D8" s="42">
+        <v>266</v>
+      </c>
+      <c r="E8" s="42">
+        <v>52</v>
+      </c>
+      <c r="F8" s="42">
+        <v>680</v>
+      </c>
+      <c r="G8" s="42">
+        <v>33</v>
+      </c>
+      <c r="H8" s="42">
+        <v>209</v>
+      </c>
+      <c r="I8" s="42">
+        <v>50</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0</v>
+      </c>
+      <c r="K8" s="42">
+        <v>0</v>
+      </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="A9" s="46">
+        <v>0.29514596064814813</v>
+      </c>
+      <c r="B9" s="43">
+        <v>55</v>
+      </c>
+      <c r="C9" s="43">
+        <v>51</v>
+      </c>
+      <c r="D9" s="43">
+        <v>262</v>
+      </c>
+      <c r="E9" s="43">
+        <v>50</v>
+      </c>
+      <c r="F9" s="43">
+        <v>698</v>
+      </c>
+      <c r="G9" s="43">
+        <v>33</v>
+      </c>
+      <c r="H9" s="43">
+        <v>89</v>
+      </c>
+      <c r="I9" s="43">
+        <v>50</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43">
+        <v>49</v>
+      </c>
       <c r="L9" s="21"/>
       <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="46"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="A10" s="46">
+        <v>0.29515918981481482</v>
+      </c>
+      <c r="B10" s="43">
+        <v>107</v>
+      </c>
+      <c r="C10" s="43">
+        <v>51</v>
+      </c>
+      <c r="D10" s="43">
+        <v>267</v>
+      </c>
+      <c r="E10" s="43">
+        <v>51</v>
+      </c>
+      <c r="F10" s="43">
+        <v>680</v>
+      </c>
+      <c r="G10" s="43">
+        <v>34</v>
+      </c>
+      <c r="H10" s="43">
+        <v>105</v>
+      </c>
+      <c r="I10" s="43">
+        <v>50</v>
+      </c>
+      <c r="J10" s="43">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43">
+        <v>51</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="46">
+        <v>0.29517240740740741</v>
+      </c>
+      <c r="B11" s="43">
+        <v>97</v>
+      </c>
+      <c r="C11" s="43">
+        <v>51</v>
+      </c>
+      <c r="D11" s="43">
+        <v>265</v>
+      </c>
+      <c r="E11" s="43">
+        <v>51</v>
+      </c>
+      <c r="F11" s="43">
+        <v>671</v>
+      </c>
+      <c r="G11" s="43">
+        <v>33</v>
+      </c>
+      <c r="H11" s="43">
+        <v>119</v>
+      </c>
+      <c r="I11" s="43">
+        <v>50</v>
+      </c>
+      <c r="J11" s="43">
+        <v>0</v>
+      </c>
+      <c r="K11" s="43">
+        <v>38</v>
+      </c>
       <c r="L11" s="21">
         <v>115</v>
       </c>
@@ -2326,17 +2410,39 @@
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="A12" s="46">
+        <v>0.29518577546296293</v>
+      </c>
+      <c r="B12" s="43">
+        <v>333</v>
+      </c>
+      <c r="C12" s="43">
+        <v>51</v>
+      </c>
+      <c r="D12" s="43">
+        <v>267</v>
+      </c>
+      <c r="E12" s="43">
+        <v>51</v>
+      </c>
+      <c r="F12" s="43">
+        <v>698</v>
+      </c>
+      <c r="G12" s="43">
+        <v>34</v>
+      </c>
+      <c r="H12" s="43">
+        <v>163</v>
+      </c>
+      <c r="I12" s="43">
+        <v>49</v>
+      </c>
+      <c r="J12" s="43">
+        <v>0</v>
+      </c>
+      <c r="K12" s="43">
+        <v>39</v>
+      </c>
       <c r="L12" s="21">
         <v>288</v>
       </c>
@@ -2345,17 +2451,39 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="46">
+        <v>0.2951990162037037</v>
+      </c>
+      <c r="B13" s="43">
+        <v>52</v>
+      </c>
+      <c r="C13" s="43">
+        <v>51</v>
+      </c>
+      <c r="D13" s="43">
+        <v>232</v>
+      </c>
+      <c r="E13" s="43">
+        <v>50</v>
+      </c>
+      <c r="F13" s="43">
+        <v>674</v>
+      </c>
+      <c r="G13" s="43">
+        <v>34</v>
+      </c>
+      <c r="H13" s="43">
+        <v>120</v>
+      </c>
+      <c r="I13" s="43">
+        <v>50</v>
+      </c>
+      <c r="J13" s="43">
+        <v>0</v>
+      </c>
+      <c r="K13" s="43">
+        <v>37</v>
+      </c>
       <c r="L13" s="21">
         <v>115</v>
       </c>
@@ -2364,17 +2492,39 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="A14" s="46">
+        <v>0.29522238425925923</v>
+      </c>
+      <c r="B14" s="43">
+        <v>305</v>
+      </c>
+      <c r="C14" s="43">
+        <v>51</v>
+      </c>
+      <c r="D14" s="43">
+        <v>267</v>
+      </c>
+      <c r="E14" s="43">
+        <v>51</v>
+      </c>
+      <c r="F14" s="43">
+        <v>683</v>
+      </c>
+      <c r="G14" s="43">
+        <v>35</v>
+      </c>
+      <c r="H14" s="43">
+        <v>111</v>
+      </c>
+      <c r="I14" s="43">
+        <v>50</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0</v>
+      </c>
+      <c r="K14" s="43">
+        <v>3040</v>
+      </c>
       <c r="L14" s="21">
         <v>259</v>
       </c>
@@ -2383,17 +2533,39 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="A15" s="46">
+        <v>0.29523521990740742</v>
+      </c>
+      <c r="B15" s="43">
+        <v>315</v>
+      </c>
+      <c r="C15" s="43">
+        <v>9</v>
+      </c>
+      <c r="D15" s="43">
+        <v>57</v>
+      </c>
+      <c r="E15" s="43">
+        <v>54</v>
+      </c>
+      <c r="F15" s="43">
+        <v>177</v>
+      </c>
+      <c r="G15" s="43">
+        <v>51</v>
+      </c>
+      <c r="H15" s="43">
+        <v>58</v>
+      </c>
+      <c r="I15" s="43">
+        <v>52</v>
+      </c>
+      <c r="J15" s="43">
+        <v>59</v>
+      </c>
+      <c r="K15" s="43">
+        <v>51</v>
+      </c>
       <c r="L15" s="21">
         <v>236</v>
       </c>
@@ -2402,17 +2574,39 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="46"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="A16" s="46">
+        <v>0.29524846064814814</v>
+      </c>
+      <c r="B16" s="43">
+        <v>151</v>
+      </c>
+      <c r="C16" s="43">
+        <v>51</v>
+      </c>
+      <c r="D16" s="43">
+        <v>266</v>
+      </c>
+      <c r="E16" s="43">
+        <v>51</v>
+      </c>
+      <c r="F16" s="43">
+        <v>684</v>
+      </c>
+      <c r="G16" s="43">
+        <v>33</v>
+      </c>
+      <c r="H16" s="43">
+        <v>152</v>
+      </c>
+      <c r="I16" s="43">
+        <v>50</v>
+      </c>
+      <c r="J16" s="43">
+        <v>0</v>
+      </c>
+      <c r="K16" s="43">
+        <v>40</v>
+      </c>
       <c r="L16" s="21">
         <v>114</v>
       </c>
@@ -2421,17 +2615,39 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="A17" s="46">
+        <v>0.29526143518518516</v>
+      </c>
+      <c r="B17" s="43">
+        <v>76</v>
+      </c>
+      <c r="C17" s="43">
+        <v>51</v>
+      </c>
+      <c r="D17" s="43">
+        <v>263</v>
+      </c>
+      <c r="E17" s="43">
+        <v>51</v>
+      </c>
+      <c r="F17" s="43">
+        <v>61</v>
+      </c>
+      <c r="G17" s="43">
+        <v>51</v>
+      </c>
+      <c r="H17" s="43">
+        <v>531</v>
+      </c>
+      <c r="I17" s="43">
+        <v>33</v>
+      </c>
+      <c r="J17" s="43">
+        <v>138</v>
+      </c>
+      <c r="K17" s="43">
+        <v>51</v>
+      </c>
       <c r="L17" s="21">
         <v>292</v>
       </c>
@@ -2441,37 +2657,37 @@
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46">
-        <v>0.21408761574074076</v>
+        <v>0.29527488425925924</v>
       </c>
       <c r="B18" s="43">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="C18" s="43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" s="43">
-        <v>3</v>
+        <v>267</v>
       </c>
       <c r="E18" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F18" s="43">
-        <v>1</v>
+        <v>671</v>
       </c>
       <c r="G18" s="43">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H18" s="43">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I18" s="43">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J18" s="43">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K18" s="43">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L18" s="21">
         <v>0</v>
@@ -2482,37 +2698,37 @@
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46">
-        <v>0.2141419675925926</v>
+        <v>0.29528797453703703</v>
       </c>
       <c r="B19" s="43">
-        <v>282</v>
+        <v>55</v>
       </c>
       <c r="C19" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D19" s="43">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="E19" s="43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F19" s="43">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G19" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H19" s="43">
-        <v>17</v>
+        <v>555</v>
       </c>
       <c r="I19" s="43">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J19" s="43">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="K19" s="43">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L19" s="21">
         <v>162</v>
@@ -2523,37 +2739,37 @@
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="46">
-        <v>0.21419620370370371</v>
+        <v>0.29530125000000002</v>
       </c>
       <c r="B20" s="43">
+        <v>163</v>
+      </c>
+      <c r="C20" s="43">
+        <v>51</v>
+      </c>
+      <c r="D20" s="43">
+        <v>266</v>
+      </c>
+      <c r="E20" s="43">
+        <v>50</v>
+      </c>
+      <c r="F20" s="43">
         <v>56</v>
       </c>
-      <c r="C20" s="43">
-        <v>0</v>
-      </c>
-      <c r="D20" s="43">
-        <v>1</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
       <c r="G20" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H20" s="43">
-        <v>17</v>
+        <v>543</v>
       </c>
       <c r="I20" s="43">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J20" s="43">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="K20" s="43">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L20" s="21">
         <v>134</v>
@@ -2564,37 +2780,37 @@
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="46">
-        <v>0.21423805555555556</v>
+        <v>0.29531442129629631</v>
       </c>
       <c r="B21" s="43">
-        <v>341</v>
+        <v>57</v>
       </c>
       <c r="C21" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D21" s="43">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E21" s="43">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F21" s="43">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="G21" s="43">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="H21" s="43">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="I21" s="43">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J21" s="43">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K21" s="43">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L21" s="21">
         <v>109</v>
@@ -2605,37 +2821,37 @@
     </row>
     <row r="22" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="47">
-        <v>0.21429211805555556</v>
+        <v>0.29533782407407411</v>
       </c>
       <c r="B22" s="44">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="C22" s="44">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D22" s="44">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E22" s="44">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F22" s="44">
-        <v>8</v>
+        <v>676</v>
       </c>
       <c r="G22" s="44">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H22" s="44">
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="I22" s="44">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J22" s="44">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K22" s="44">
-        <v>0</v>
+        <v>3072</v>
       </c>
       <c r="L22" s="49">
         <v>219</v>
@@ -2670,12 +2886,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -2686,43 +2904,43 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2">
         <f>'Data In'!B5</f>
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="C2">
         <f>'Data In'!C5</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <f>'Data In'!D5</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="E2">
         <f>'Data In'!E5</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <f>'Data In'!F5</f>
-        <v>8</v>
+        <v>676</v>
       </c>
       <c r="G2">
         <f>'Data In'!G5</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <f>'Data In'!H5</f>
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="I2">
         <f>'Data In'!I5</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <f>'Data In'!J5</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <f>'Data In'!K5</f>
-        <v>0</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -2784,23 +3002,23 @@
       </c>
       <c r="B6">
         <f>B2</f>
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <f>D2</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <f>F2</f>
-        <v>8</v>
+        <v>676</v>
       </c>
       <c r="E6">
         <f>H2</f>
-        <v>17</v>
+        <v>267</v>
       </c>
       <c r="F6">
         <f>J2</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f>L2</f>
@@ -2808,19 +3026,19 @@
       </c>
       <c r="H6">
         <f>C2</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I6">
         <f>E2</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <f>G2</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <f>I2</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -2829,7 +3047,7 @@
       </c>
       <c r="B8">
         <f>-B6</f>
-        <v>-80</v>
+        <v>-338</v>
       </c>
       <c r="C8">
         <v>-50</v>
@@ -2842,7 +3060,7 @@
       </c>
       <c r="F8">
         <f>F6</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f>G6</f>
@@ -2859,7 +3077,7 @@
       </c>
       <c r="K8">
         <f>-K6</f>
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -2869,17 +3087,17 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="54">
-        <f>C6</f>
-        <v>0</v>
+      <c r="C9" s="52">
+        <f>SQRT(C6^2-C8^2)</f>
+        <v>261.25849268492692</v>
       </c>
       <c r="D9">
         <f>D6</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="54">
-        <f>E6</f>
-        <v>17</v>
+        <v>676</v>
+      </c>
+      <c r="E9" s="52">
+        <f>SQRT(E6^2-E8^2)</f>
+        <v>262.27657158045969</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2887,17 +3105,17 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="54">
-        <f>-H6</f>
-        <v>0</v>
+      <c r="H9" s="52">
+        <f>-SQRT(H6^2-H8^2)</f>
+        <v>-10.04987562112089</v>
       </c>
       <c r="I9">
         <f>-I6</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="54">
-        <f>-J6</f>
-        <v>0</v>
+        <v>-51</v>
+      </c>
+      <c r="J9" s="52" t="e">
+        <f>-SQRT(J6^2-J8^2)</f>
+        <v>#NUM!</v>
       </c>
       <c r="K9">
         <v>0</v>
